--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2839626.179744007</v>
+        <v>2833904.56777612</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095098</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>173.3648705534652</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>159.5623709710783</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>20.48699093885616</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>162.5776147681367</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>99.72476023394486</v>
       </c>
       <c r="H5" t="n">
-        <v>178.0021902409344</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,19 +952,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>179.5502959952859</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>333.7356466614543</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>127.7140457494436</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>91.13431341868524</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>48.27083703815647</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>113.7878770660816</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>92.09843453981343</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292658</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1782,10 +1782,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>38.81758817917186</v>
       </c>
       <c r="T16" t="n">
-        <v>51.970444856493</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>98.39570183978249</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2061,16 +2061,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>35.60822452391465</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>207.6051439140956</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>67.9309012760387</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>243.1512435359468</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06419698459447772</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>75.62077850565281</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>67.33742371513297</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>46.44825120908466</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>127.4788074863504</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>36.41670903610036</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247837</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>43.51366809188707</v>
+        <v>70.82764119510639</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>69.96969900783296</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>67.03876264822884</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>38.00987823646887</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>17.25588147840143</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>109.7472660450978</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>57.76865805628458</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1924.457674141023</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="W2" t="n">
-        <v>2311.057514205145</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="X2" t="n">
-        <v>2311.057514205145</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="Y2" t="n">
-        <v>2311.057514205145</v>
+        <v>2535.974978926224</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.965822962985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>210.965822962985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>210.965822962985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>210.965822962985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>210.965822962985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>210.965822962985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>563.9091713093267</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610024</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>210.965822962985</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.965822962985</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1152.132006003442</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C5" t="n">
-        <v>1152.132006003442</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D5" t="n">
-        <v>793.8663073966916</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="E5" t="n">
-        <v>408.0780547984473</v>
+        <v>565.6609676543608</v>
       </c>
       <c r="F5" t="n">
-        <v>401.1325540492439</v>
+        <v>154.6750628647532</v>
       </c>
       <c r="G5" t="n">
-        <v>387.2091499878348</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2302.336936304455</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1928.871178043375</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>1538.731846067564</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="6">
@@ -4637,40 +4637,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.3478788207</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3478788207</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4764,13 +4764,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>257.3478788207</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>257.3478788207</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2118.304160219349</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>411.9186004304258</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2118.304160219349</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X8" t="n">
-        <v>2118.304160219349</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y8" t="n">
-        <v>2118.304160219349</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.9727148150933</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4998,16 +4998,16 @@
         <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541693</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>351.9727148150933</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>351.9727148150933</v>
+        <v>649.953643809393</v>
       </c>
       <c r="Y10" t="n">
-        <v>351.9727148150933</v>
+        <v>429.1610646658629</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5029,7 +5029,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5038,55 +5038,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2016.310259422546</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N11" t="n">
-        <v>2985.817436667297</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O11" t="n">
-        <v>3865.782086996752</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
         <v>487.9678785494859</v>
@@ -5117,31 +5117,31 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.832110204571</v>
+        <v>388.668168728447</v>
       </c>
       <c r="C13" t="n">
-        <v>506.832110204571</v>
+        <v>388.668168728447</v>
       </c>
       <c r="D13" t="n">
-        <v>356.7154707922352</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E13" t="n">
-        <v>356.7154707922352</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F13" t="n">
-        <v>356.7154707922352</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G13" t="n">
         <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W13" t="n">
-        <v>909.2731541783409</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X13" t="n">
-        <v>909.2731541783409</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y13" t="n">
-        <v>688.4805750348107</v>
+        <v>388.668168728447</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1797.11783460013</v>
       </c>
       <c r="M14" t="n">
-        <v>2536.15366264131</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5305,25 +5305,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5372,25 +5372,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>825.859557377715</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="C16" t="n">
-        <v>656.9233744498081</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D16" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862232</v>
+        <v>1917.133781075237</v>
       </c>
       <c r="T16" t="n">
-        <v>1814.017610017289</v>
+        <v>1695.367165644763</v>
       </c>
       <c r="U16" t="n">
-        <v>1524.914743142933</v>
+        <v>1406.264298770406</v>
       </c>
       <c r="V16" t="n">
-        <v>1524.914743142933</v>
+        <v>1151.579810564519</v>
       </c>
       <c r="W16" t="n">
-        <v>1235.497573105972</v>
+        <v>862.1626405275587</v>
       </c>
       <c r="X16" t="n">
-        <v>1007.508022207955</v>
+        <v>634.1730896295413</v>
       </c>
       <c r="Y16" t="n">
-        <v>1007.508022207955</v>
+        <v>413.3805104860112</v>
       </c>
     </row>
     <row r="17">
@@ -5503,49 +5503,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>913.1101661838552</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1364.144379432264</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>1897.676284104189</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330835</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279157</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>754.3196266559706</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>585.3834437280638</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1163.957642384228</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>1163.957642384228</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>935.9680914862104</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>935.9680914862104</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,70 +5807,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282341</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>877.1197344942216</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="C22" t="n">
-        <v>708.1835515663147</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D22" t="n">
-        <v>558.0669121539789</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E22" t="n">
         <v>410.1538185715858</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1577.410141987875</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1322.725653781988</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W22" t="n">
-        <v>1286.757750222479</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X22" t="n">
-        <v>1058.768199324461</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="Y22" t="n">
-        <v>1058.768199324461</v>
+        <v>410.1538185715858</v>
       </c>
     </row>
     <row r="23">
@@ -5977,16 +5977,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -5995,31 +5995,31 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1296.118160724478</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M23" t="n">
-        <v>2274.668463554307</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N23" t="n">
-        <v>3254.420735780953</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
@@ -6044,64 +6044,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6138,19 +6138,19 @@
         <v>360.5895482553301</v>
       </c>
       <c r="G25" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1887.726394108704</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1598.623527234348</v>
       </c>
       <c r="V25" t="n">
-        <v>1008.180782923723</v>
+        <v>1343.939039028461</v>
       </c>
       <c r="W25" t="n">
-        <v>1008.180782923723</v>
+        <v>1054.5218689915</v>
       </c>
       <c r="X25" t="n">
-        <v>1008.180782923723</v>
+        <v>826.5323180934831</v>
       </c>
       <c r="Y25" t="n">
-        <v>1008.180782923723</v>
+        <v>826.5323180934831</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O26" t="n">
-        <v>3944.053400686433</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862919</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089883</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468559</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6308,10 +6308,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6320,34 +6320,34 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y27" t="n">
         <v>1138.808109517387</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3550.306981950062</v>
+        <v>361.822894557956</v>
       </c>
       <c r="C28" t="n">
-        <v>3381.370799022155</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D28" t="n">
-        <v>3231.254159609819</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E28" t="n">
-        <v>3231.189314170835</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F28" t="n">
-        <v>3231.189314170835</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G28" t="n">
-        <v>3063.486477545554</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H28" t="n">
-        <v>2917.269290763412</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>4496.535381004075</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>4496.535381004075</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>4207.432514129719</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>3952.748025923832</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>3952.748025923832</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>3952.748025923832</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y28" t="n">
-        <v>3731.955446780302</v>
+        <v>543.4713593881957</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143014</v>
@@ -6451,40 +6451,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2368.748013620957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3891.962603055103</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="C31" t="n">
-        <v>3723.026420127196</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D31" t="n">
-        <v>3572.909780714861</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E31" t="n">
-        <v>3424.996687132467</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F31" t="n">
-        <v>3278.106739634557</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G31" t="n">
-        <v>3110.403903009276</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>2964.186716227134</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>4778.051722419721</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>4556.285106989247</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>4556.285106989247</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>4301.60061878336</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>4301.60061878336</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>4073.611067885343</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>4073.611067885343</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>1923.729615463053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2903.481887689699</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3783.446538019154</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
         <v>4195.497197679678</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,64 +6755,64 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>783.6965010464432</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C34" t="n">
-        <v>614.7603181185364</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D34" t="n">
-        <v>485.9938459101016</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E34" t="n">
-        <v>485.9938459101016</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6888,22 +6888,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1475.554715057174</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1475.554715057174</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>1186.137545020213</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>1186.137545020213</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>965.344965876683</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6928,40 +6928,40 @@
         <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427196</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1803.682313196075</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2649.230460361819</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420601</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750057</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107235</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862917</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
         <v>4667.761053946815</v>
@@ -6973,16 +6973,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973205</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161936</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549423</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494868</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763718</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468574</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320246</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
         <v>1715.000032008795</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,22 +7046,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517389</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3444.751457907324</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C37" t="n">
-        <v>3275.815274979418</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D37" t="n">
-        <v>3275.815274979418</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="E37" t="n">
-        <v>3275.815274979418</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="F37" t="n">
-        <v>3128.925327481507</v>
+        <v>334.8069429879243</v>
       </c>
       <c r="G37" t="n">
-        <v>2961.222490856226</v>
+        <v>167.1041063626433</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4586.365838246546</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>4364.599222816072</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>4364.599222816072</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>4364.599222816072</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>4075.182052779111</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>3847.192501881094</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>3626.399922737564</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7162,64 +7162,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972665</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2047.844055175504</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N38" t="n">
-        <v>3027.596327402151</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O38" t="n">
-        <v>3907.560977731606</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107235</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862917</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7268,13 +7268,13 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,7 +7283,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
         <v>2043.809373447819</v>
@@ -7292,7 +7292,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>554.7329138614822</v>
+        <v>333.9403347179511</v>
       </c>
       <c r="C40" t="n">
-        <v>554.7329138614822</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D40" t="n">
-        <v>554.7329138614822</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E40" t="n">
-        <v>406.8198202790891</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.657581931531</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T40" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.7880996267</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1253.7880996267</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W40" t="n">
-        <v>964.3709295897393</v>
+        <v>964.3709295897384</v>
       </c>
       <c r="X40" t="n">
-        <v>736.3813786917219</v>
+        <v>736.381378691721</v>
       </c>
       <c r="Y40" t="n">
-        <v>736.3813786917219</v>
+        <v>515.5887995481909</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
@@ -7399,64 +7399,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N41" t="n">
-        <v>2883.993034926781</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,64 +7466,64 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>431.9845838435969</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="C43" t="n">
-        <v>393.5907674431232</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="D43" t="n">
-        <v>243.4741280307875</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>112.991217759911</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T43" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1385.724257814702</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1131.039769608815</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W43" t="n">
-        <v>841.6225995718539</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X43" t="n">
-        <v>613.6330486738366</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y43" t="n">
-        <v>613.6330486738366</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="44">
@@ -7639,46 +7639,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196074</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M44" t="n">
-        <v>2750.971543384379</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N44" t="n">
-        <v>3297.750360443162</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O44" t="n">
-        <v>3800.722831322499</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604874</v>
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,16 +7757,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
         <v>1346.568408282342</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>561.5038042865474</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="C46" t="n">
-        <v>392.5676213586405</v>
+        <v>504.4465917311009</v>
       </c>
       <c r="D46" t="n">
-        <v>242.4509819463048</v>
+        <v>354.3299523187651</v>
       </c>
       <c r="E46" t="n">
-        <v>242.4509819463048</v>
+        <v>206.416858736372</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>206.416858736372</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>206.416858736372</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783409</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413803</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X46" t="n">
-        <v>561.5038042865474</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y46" t="n">
-        <v>561.5038042865474</v>
+        <v>673.3827746590077</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>426.9983436221909</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>411.0304280899009</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>114.2189875964762</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>297.8289162490797</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9175,19 +9175,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>229.1155640189929</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,10 +9652,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>133.2530576400256</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10120,22 +10120,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>283.3156027685499</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10360,13 +10360,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
-        <v>17.45080131651065</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>315.1679217109291</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-9.627854069549358e-13</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P38" t="n">
-        <v>170.1140909277281</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>374.1693948021941</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,28 +11299,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M44" t="n">
-        <v>417.9366924407886</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>52.23793119294662</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.4862188122814</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>150.95143715227</v>
       </c>
       <c r="T16" t="n">
-        <v>167.5785044196762</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>50.21977117842987</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>250.9147738126763</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>18.10451147494152</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>151.6180480001305</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>8.986399787881169</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.3697656619747</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>142.963874846442</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>112.4945564668043</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>49.90416920075343</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>21.13666553186199</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>182.1679443159944</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>101.2413468224337</v>
+        <v>73.92737371921439</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>97.27712209079488</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>78.38228537470241</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>129.236942862159</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>128.1651665445298</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>35.00774886922301</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>167.9409973327526</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771810.9734747781</v>
+        <v>771810.973474778</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>771810.973474778</v>
+        <v>771810.9734747781</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>771810.9734747781</v>
+        <v>771810.973474778</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>771810.9734747779</v>
+        <v>771810.973474778</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914266</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914267</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914266</v>
-      </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>635330.8590191726</v>
+        <v>635330.8590191727</v>
       </c>
       <c r="F2" t="n">
         <v>635330.8590191728</v>
       </c>
       <c r="G2" t="n">
-        <v>635330.859019173</v>
+        <v>635330.8590191725</v>
       </c>
       <c r="H2" t="n">
         <v>635330.8590191728</v>
       </c>
       <c r="I2" t="n">
+        <v>635330.8590191726</v>
+      </c>
+      <c r="J2" t="n">
+        <v>635330.8590191731</v>
+      </c>
+      <c r="K2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="L2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="M2" t="n">
         <v>635330.859019173</v>
       </c>
-      <c r="J2" t="n">
-        <v>635330.8590191728</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>635330.8590191727</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>635330.8590191727</v>
+      </c>
+      <c r="P2" t="n">
         <v>635330.8590191726</v>
-      </c>
-      <c r="M2" t="n">
-        <v>635330.8590191727</v>
-      </c>
-      <c r="N2" t="n">
-        <v>635330.8590191728</v>
-      </c>
-      <c r="O2" t="n">
-        <v>635330.8590191726</v>
-      </c>
-      <c r="P2" t="n">
-        <v>635330.8590191728</v>
       </c>
     </row>
     <row r="3">
@@ -26377,7 +26377,7 @@
         <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918994</v>
@@ -26447,19 +26447,19 @@
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918989</v>
       </c>
       <c r="N4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="O4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="P4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918995</v>
       </c>
     </row>
     <row r="5">
@@ -26481,13 +26481,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
@@ -26502,7 +26502,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-199342.2282436552</v>
+        <v>-199342.2282436554</v>
       </c>
       <c r="C6" t="n">
-        <v>390625.6509708893</v>
+        <v>390625.6509708894</v>
       </c>
       <c r="D6" t="n">
         <v>390625.6509708891</v>
       </c>
       <c r="E6" t="n">
-        <v>-206578.5655471375</v>
+        <v>-207250.5204493954</v>
       </c>
       <c r="F6" t="n">
-        <v>520798.8484462692</v>
+        <v>520126.8935440113</v>
       </c>
       <c r="G6" t="n">
-        <v>520798.8484462694</v>
+        <v>520126.893544011</v>
       </c>
       <c r="H6" t="n">
-        <v>520798.8484462692</v>
+        <v>520126.8935440113</v>
       </c>
       <c r="I6" t="n">
-        <v>520798.8484462694</v>
+        <v>520126.8935440111</v>
       </c>
       <c r="J6" t="n">
-        <v>344375.6292536762</v>
+        <v>343703.6743514184</v>
       </c>
       <c r="K6" t="n">
-        <v>520798.8484462691</v>
+        <v>520126.8935440113</v>
       </c>
       <c r="L6" t="n">
-        <v>520798.848446269</v>
+        <v>520126.8935440113</v>
       </c>
       <c r="M6" t="n">
-        <v>391156.5336073246</v>
+        <v>390484.5787050667</v>
       </c>
       <c r="N6" t="n">
-        <v>520798.8484462693</v>
+        <v>520126.8935440112</v>
       </c>
       <c r="O6" t="n">
-        <v>520798.8484462692</v>
+        <v>520126.8935440112</v>
       </c>
       <c r="P6" t="n">
-        <v>520798.8484462693</v>
+        <v>520126.8935440111</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26770,10 +26770,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503742</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>191.9080212175424</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>14.85334183789323</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27438,7 +27438,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27554,10 +27554,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>135.683897902939</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>62.45749068994758</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>314.0594097868501</v>
       </c>
       <c r="H5" t="n">
-        <v>145.9205825234228</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>46.15935939375129</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>48.19472341080751</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>221.5269229679694</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>195.3886849179058</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>177.4388183508807</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>979.3001790351024</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>866.6205424822328</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>666.5208230093876</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>635.0202028044802</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>684.705678411325</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>581.9206576708328</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>532.0150438593975</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
@@ -36840,22 +36840,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>835.6174381814614</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
@@ -37080,13 +37080,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
-        <v>416.2127875358825</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>854.089037541156</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509647</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509647</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P38" t="n">
-        <v>568.8760771471001</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>882.2223956904132</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M44" t="n">
-        <v>956.8578082710154</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2833904.56777612</v>
+        <v>2837310.058900568</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836233</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095098</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>159.5623709710783</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>92.49556798565635</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>162.5776147681367</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>127.004412707233</v>
       </c>
     </row>
     <row r="5">
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>99.72476023394486</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>65.45045825209378</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>14.19510348422575</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>333.7356466614543</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>123.2264323245079</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>48.27083703815647</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>137.306604049015</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>92.09843453981343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292658</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396191</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174144</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>159.579063430609</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>38.81758817917186</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>167.0335056422217</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534545</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292602</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396202</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>165.8745751493943</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>207.6051439140956</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>67.9309012760387</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>75.62077850565281</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>67.33742371513297</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>170.8065716692277</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3009,7 +3009,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3243,19 +3243,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>84.60478350964898</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.41670903610036</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>70.82764119510639</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>84.69473660442779</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>69.96969900783296</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3720,16 +3720,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>5.947390656461772</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>17.25588147840143</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3957,7 +3957,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>54.86718477555949</v>
       </c>
     </row>
     <row r="44">
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>109.7472660450978</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>265.5667862909753</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2149.375138862102</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C2" t="n">
         <v>1780.41262192169</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2535.974978926224</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2535.974978926224</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2535.974978926224</v>
+        <v>2153.87838018277</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.974978926224</v>
+        <v>2153.87838018277</v>
       </c>
       <c r="W2" t="n">
-        <v>2535.974978926224</v>
+        <v>2153.87838018277</v>
       </c>
       <c r="X2" t="n">
-        <v>2535.974978926224</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="Y2" t="n">
-        <v>2535.974978926224</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424004</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,19 +4412,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4509,28 +4509,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>563.9091713093267</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U4" t="n">
-        <v>274.7355609638946</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="V4" t="n">
-        <v>274.7355609638946</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1309.714918859356</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C5" t="n">
-        <v>1309.714918859356</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="D5" t="n">
-        <v>951.4492202526051</v>
+        <v>930.7521172616393</v>
       </c>
       <c r="E5" t="n">
-        <v>565.6609676543608</v>
+        <v>544.963864663395</v>
       </c>
       <c r="F5" t="n">
-        <v>154.6750628647532</v>
+        <v>133.9779598737875</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>120.0545558123784</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4606,13 +4606,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y5" t="n">
-        <v>1309.714918859356</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1139.146815977588</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C8" t="n">
-        <v>770.1842990371763</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="D8" t="n">
-        <v>411.9186004304258</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>178.4141255824937</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4837,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017521</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1525.74665604171</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="9">
@@ -4886,7 +4886,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598713</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>247.5125998356232</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C10" t="n">
-        <v>247.5125998356232</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>649.953643809393</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>429.1610646658629</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="11">
@@ -5020,22 +5020,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5047,22 +5047,22 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483405</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542187</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5074,13 +5074,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>388.668168728447</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="C13" t="n">
-        <v>388.668168728447</v>
+        <v>343.0033510423848</v>
       </c>
       <c r="D13" t="n">
-        <v>388.668168728447</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E13" t="n">
-        <v>388.668168728447</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5244,7 +5244,7 @@
         <v>481.6968904858343</v>
       </c>
       <c r="Y13" t="n">
-        <v>388.668168728447</v>
+        <v>481.6968904858343</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5284,16 +5284,16 @@
         <v>939.1634975427193</v>
       </c>
       <c r="L14" t="n">
-        <v>1797.11783460013</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M14" t="n">
-        <v>2330.649739272054</v>
+        <v>2782.232616025902</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330836</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5308,16 +5308,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
         <v>2125.961311426849</v>
@@ -5378,19 +5378,19 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.3805104860112</v>
+        <v>500.2948715744226</v>
       </c>
       <c r="C16" t="n">
-        <v>413.3805104860112</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D16" t="n">
-        <v>263.2638710736754</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1917.133781075237</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1695.367165644763</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U16" t="n">
-        <v>1406.264298770406</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="V16" t="n">
-        <v>1151.579810564519</v>
+        <v>1420.14263648317</v>
       </c>
       <c r="W16" t="n">
-        <v>862.1626405275587</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X16" t="n">
-        <v>634.1730896295413</v>
+        <v>902.7359155481925</v>
       </c>
       <c r="Y16" t="n">
-        <v>413.3805104860112</v>
+        <v>681.9433364046623</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,67 +5500,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483405</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542187</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>841.6225995718535</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>613.6330486738361</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="20">
@@ -5731,46 +5731,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551632</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>685.1208104866391</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1549.639626139994</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483405</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542187</v>
+        <v>3507.942201196469</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5779,19 +5779,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5855,28 +5855,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>410.1538185715858</v>
+        <v>674.3568109459515</v>
       </c>
       <c r="C22" t="n">
-        <v>410.1538185715858</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D22" t="n">
-        <v>410.1538185715858</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258583</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384227</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V22" t="n">
-        <v>909.27315417834</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413794</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X22" t="n">
-        <v>410.1538185715858</v>
+        <v>895.1493900894816</v>
       </c>
       <c r="Y22" t="n">
-        <v>410.1538185715858</v>
+        <v>674.3568109459515</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5995,13 +5995,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364129</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750059</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6092,28 +6092,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>826.5323180934831</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="C25" t="n">
-        <v>657.5961351655762</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="D25" t="n">
-        <v>507.4794957532405</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="E25" t="n">
-        <v>507.4794957532405</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="F25" t="n">
-        <v>360.5895482553301</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1887.726394108704</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1598.623527234348</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1343.939039028461</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W25" t="n">
-        <v>1054.5218689915</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X25" t="n">
-        <v>826.5323180934831</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y25" t="n">
-        <v>826.5323180934831</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
@@ -6238,16 +6238,16 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6281,73 +6281,73 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089883</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468559</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
         <v>1138.808109517387</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>361.822894557956</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>619.8559841413803</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>543.4713593881957</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6463,19 +6463,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6545,7 +6545,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
         <v>794.200663232024</v>
@@ -6554,16 +6554,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>192.8867116300491</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C31" t="n">
-        <v>192.8867116300491</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>192.8867116300491</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>192.8867116300491</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>192.8867116300491</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1693.981118287254</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1472.21450285678</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423046</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="32">
@@ -6691,34 +6691,34 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
         <v>794.200663232024</v>
@@ -6797,22 +6797,22 @@
         <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>263.2638710736754</v>
+        <v>675.7429179653792</v>
       </c>
       <c r="C34" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D34" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E34" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6861,7 +6861,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838521</v>
+        <v>1163.643339221623</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858347</v>
+        <v>1078.183961939149</v>
       </c>
       <c r="Y34" t="n">
-        <v>444.9123359039152</v>
+        <v>857.3913827956189</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6937,22 +6937,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>919.9473678912377</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1784.466183544592</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P35" t="n">
         <v>4195.497197679678</v>
@@ -6964,19 +6964,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6992,34 +6992,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
         <v>794.200663232024</v>
@@ -7028,16 +7028,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>334.8069429879243</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>167.1041063626433</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>481.6968904858347</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7159,13 +7159,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7177,19 +7177,19 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1339.447785386688</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483405</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542187</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679678</v>
@@ -7207,13 +7207,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>333.9403347179511</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C40" t="n">
         <v>263.2638710736754</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V40" t="n">
-        <v>1253.788099626699</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W40" t="n">
-        <v>964.3709295897384</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X40" t="n">
-        <v>736.381378691721</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="Y40" t="n">
-        <v>515.5887995481909</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>260.9043113423041</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C43" t="n">
-        <v>260.9043113423041</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D43" t="n">
-        <v>260.9043113423041</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E43" t="n">
-        <v>112.991217759911</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208122</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838516</v>
+        <v>874.5404723472661</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858343</v>
+        <v>646.5509214492488</v>
       </c>
       <c r="Y43" t="n">
-        <v>260.9043113423041</v>
+        <v>591.1295226860574</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089258</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L44" t="n">
-        <v>1237.706702364129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390117</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>673.3827746590077</v>
+        <v>825.859557377715</v>
       </c>
       <c r="C46" t="n">
-        <v>504.4465917311009</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D46" t="n">
-        <v>354.3299523187651</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E46" t="n">
-        <v>206.416858736372</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F46" t="n">
-        <v>206.416858736372</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G46" t="n">
-        <v>206.416858736372</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K46" t="n">
         <v>344.6708498442063</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T46" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1445.473983799873</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V46" t="n">
-        <v>1190.789495593986</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="W46" t="n">
-        <v>901.3723255570251</v>
+        <v>1274.641687419262</v>
       </c>
       <c r="X46" t="n">
-        <v>673.3827746590077</v>
+        <v>1046.652136521245</v>
       </c>
       <c r="Y46" t="n">
-        <v>673.3827746590077</v>
+        <v>825.859557377715</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714822</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>29.61882225792226</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8932,19 +8932,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>411.0304280899009</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>246.4545694808461</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>170.1140909277304</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>67.53663776704337</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277313</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9886,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>67.53663776704411</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10588,22 +10588,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>135.6385654278975</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>103.7862464855152</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>170.1140909277313</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>29.94021704961287</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>126.4862188122814</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>7.667757668018879</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>150.95143715227</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>51.55114770987305</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>1.372245949233502</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>18.10451147494152</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>91.26811680410508</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>151.6180480001305</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>142.963874846442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>112.4945564668043</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.96245366221416</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>141.1048718793882</v>
       </c>
       <c r="Y34" t="n">
-        <v>182.1679443159944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>73.92737371921439</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>97.27712209079488</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>212.637262695633</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>128.1651665445298</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>163.7174685765353</v>
       </c>
     </row>
     <row r="44">
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>35.00774886922301</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>20.9562120456157</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771810.9734747781</v>
+        <v>771810.9734747779</v>
       </c>
     </row>
     <row r="7">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>771810.973474778</v>
+        <v>771810.9734747781</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914265</v>
@@ -26328,34 +26328,34 @@
         <v>635330.8590191728</v>
       </c>
       <c r="G2" t="n">
-        <v>635330.8590191725</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="H2" t="n">
-        <v>635330.8590191728</v>
+        <v>635330.8590191724</v>
       </c>
       <c r="I2" t="n">
         <v>635330.8590191726</v>
       </c>
       <c r="J2" t="n">
-        <v>635330.8590191731</v>
+        <v>635330.8590191727</v>
       </c>
       <c r="K2" t="n">
+        <v>635330.8590191727</v>
+      </c>
+      <c r="L2" t="n">
+        <v>635330.859019173</v>
+      </c>
+      <c r="M2" t="n">
+        <v>635330.8590191725</v>
+      </c>
+      <c r="N2" t="n">
         <v>635330.8590191728</v>
       </c>
-      <c r="L2" t="n">
-        <v>635330.8590191728</v>
-      </c>
-      <c r="M2" t="n">
-        <v>635330.859019173</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>635330.8590191726</v>
+      </c>
+      <c r="P2" t="n">
         <v>635330.8590191727</v>
-      </c>
-      <c r="O2" t="n">
-        <v>635330.8590191727</v>
-      </c>
-      <c r="P2" t="n">
-        <v>635330.8590191726</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26429,31 +26429,31 @@
         <v>18148.49231918995</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918996</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="L4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="M4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="N4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="L4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="M4" t="n">
-        <v>18148.49231918989</v>
-      </c>
-      <c r="N4" t="n">
-        <v>18148.49231918995</v>
       </c>
       <c r="O4" t="n">
         <v>18148.49231918995</v>
@@ -26493,16 +26493,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-199342.2282436554</v>
+        <v>-199342.2282436557</v>
       </c>
       <c r="C6" t="n">
-        <v>390625.6509708894</v>
+        <v>390625.6509708888</v>
       </c>
       <c r="D6" t="n">
         <v>390625.6509708891</v>
       </c>
       <c r="E6" t="n">
-        <v>-207250.5204493954</v>
+        <v>-206645.7610373634</v>
       </c>
       <c r="F6" t="n">
-        <v>520126.8935440113</v>
+        <v>520731.6529560435</v>
       </c>
       <c r="G6" t="n">
-        <v>520126.893544011</v>
+        <v>520731.6529560435</v>
       </c>
       <c r="H6" t="n">
-        <v>520126.8935440113</v>
+        <v>520731.652956043</v>
       </c>
       <c r="I6" t="n">
-        <v>520126.8935440111</v>
+        <v>520731.6529560433</v>
       </c>
       <c r="J6" t="n">
-        <v>343703.6743514184</v>
+        <v>344308.4337634505</v>
       </c>
       <c r="K6" t="n">
-        <v>520126.8935440113</v>
+        <v>520731.6529560434</v>
       </c>
       <c r="L6" t="n">
-        <v>520126.8935440113</v>
+        <v>520731.6529560436</v>
       </c>
       <c r="M6" t="n">
-        <v>390484.5787050667</v>
+        <v>391089.3381170983</v>
       </c>
       <c r="N6" t="n">
-        <v>520126.8935440112</v>
+        <v>520731.6529560435</v>
       </c>
       <c r="O6" t="n">
-        <v>520126.8935440112</v>
+        <v>520731.6529560433</v>
       </c>
       <c r="P6" t="n">
-        <v>520126.8935440111</v>
+        <v>520731.6529560434</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>14.85334183789323</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>158.7285995226329</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>62.45749068994758</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>91.58024064486179</v>
       </c>
     </row>
     <row r="5">
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>314.0594097868501</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>258.4723145122634</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>272.3278948523653</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>48.19472341080751</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>290.5577376962871</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27909,10 +27909,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>103.1161092074294</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>177.4388183508807</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.002824898472912e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>485.2089366502542</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302265</v>
@@ -35424,7 +35424,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908542</v>
@@ -35433,7 +35433,7 @@
         <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35652,19 +35652,19 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>866.6205424822328</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>798.7564048937573</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037194</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>625.7042053200623</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>404.7279243224438</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359043</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36363,7 +36363,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200632</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
         <v>988.434649323059</v>
@@ -36372,7 +36372,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
@@ -36606,10 +36606,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>581.9206576708328</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36618,7 +36618,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36834,25 +36834,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>575.5896386552631</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>472.8298519832979</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>559.3763608778471</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359043</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636241</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7042053200632</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
